--- a/EmailPerformer/Data/Config.xlsx
+++ b/EmailPerformer/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omarf\Desktop\ITI\During Sessions\UIpath\Labs\EmailPerformer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32382E2-E10A-453F-A3B0-2E5C93B2AD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B4ED7B-9BA9-412E-9DE7-1B52DC66606B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>ProcessABCQueue</t>
   </si>
   <si>
-    <t>Tasks</t>
-  </si>
-  <si>
     <t>BotCred</t>
   </si>
   <si>
@@ -192,16 +189,19 @@
     <t>PersonName</t>
   </si>
   <si>
-    <t>Mohammed Mesbah</t>
-  </si>
-  <si>
     <t>Omar's bot</t>
   </si>
   <si>
     <t>Emails</t>
   </si>
   <si>
-    <t>omarfekry01@outlook.com;mesbahmohamed971@gmail.com</t>
+    <t>zeyadmedhat255@gmail.com;hosnygamal50@gmail.com</t>
+  </si>
+  <si>
+    <t>Zeyad and Hosny</t>
+  </si>
+  <si>
+    <t>EmailTask</t>
   </si>
 </sst>
 </file>
@@ -589,13 +589,13 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5546875" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.44140625" customWidth="1"/>
     <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
@@ -650,7 +650,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
@@ -671,55 +671,55 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
         <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
         <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
